--- a/PersonelYonSis/staticfiles/excels/FazlaMesaiSablon.xlsx
+++ b/PersonelYonSis/staticfiles/excels/FazlaMesaiSablon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.38.12.55\kdh_main\static_cdn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PerYonSis\PersonelYonSis\staticfiles\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TC Kimlik No</t>
   </si>
@@ -44,28 +44,16 @@
     <t>Nöbet Saati (Normal)</t>
   </si>
   <si>
-    <t>Nöbet Saati (Bayram)</t>
-  </si>
-  <si>
     <t>Birim Adı</t>
   </si>
   <si>
-    <t>Riskli Normal Fazla Mesai</t>
-  </si>
-  <si>
-    <t>Riskli Bayram Fazla Mesai</t>
-  </si>
-  <si>
-    <t>Normal İcap Süresi</t>
-  </si>
-  <si>
-    <t>Bayram İcap Süresi</t>
+    <t>Bildirim Türü</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,14 +82,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -110,21 +92,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -195,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -203,19 +170,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -498,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -512,49 +473,33 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="52.7109375" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
